--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/AUDRateMultiCurvesCalibration.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/AUDRateMultiCurvesCalibration.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB3A71-0CAE-469C-BA40-1655B5F8C2C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="14955" windowHeight="12525" tabRatio="418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26370" windowHeight="14820" tabRatio="418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="12" r:id="rId1"/>
@@ -32,8 +33,16 @@
     <definedName name="Metrics">'GetInfo &amp; GetInstrumentInfo'!$B$30:$B$35</definedName>
     <definedName name="RateIndex">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1287,10 +1296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1301,20 +1310,21 @@
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90" thickBot="1">
+    <row r="1" spans="1:13" ht="90" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="34">
         <f ca="1">TODAY()</f>
-        <v>43133</v>
+        <v>43648</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>14</v>
@@ -1328,32 +1338,32 @@
       <c r="F1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="36" t="str">
+      <c r="H1" s="36" t="str">
         <f>B30</f>
         <v>ImpliedQuote</v>
       </c>
-      <c r="H1" s="36" t="str">
+      <c r="I1" s="36" t="str">
         <f>B31</f>
         <v>MarketQuote</v>
       </c>
-      <c r="I1" s="36" t="str">
+      <c r="J1" s="36" t="str">
         <f>B32</f>
         <v>NPV</v>
       </c>
-      <c r="J1" s="36" t="str">
+      <c r="K1" s="36" t="str">
         <f>B33</f>
         <v>AccrualFactor</v>
       </c>
-      <c r="K1" s="36" t="str">
+      <c r="L1" s="36" t="str">
         <f>B34</f>
         <v>ConvexityAdjustment</v>
       </c>
-      <c r="L1" s="36" t="str">
+      <c r="M1" s="36" t="str">
         <f>B35</f>
         <v>DeltaR</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1368,39 +1378,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E2" s="8">
-        <f ca="1">(G2-D2)</f>
-        <v>5.1199999999987103E-2</v>
+        <f ca="1">(I2-D2)</f>
+        <v>-5.5880647331640887E-14</v>
       </c>
       <c r="F2" s="7" t="str">
         <f ca="1">IF(ISERROR(C2),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C2,BaseDate,D2,0))</f>
-        <v>AUD-Deposit-1D-0.015-2/02/2018</v>
-      </c>
-      <c r="G2" s="10">
-        <f t="array" aca="1" ref="G2:L35" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData(Metrics,A5,F2:F28,BaseDate)</f>
-        <v>6.6199999999987102E-2</v>
-      </c>
-      <c r="H2" s="10">
+        <v>AUD-Deposit-1D-0.015-2/07/2019</v>
+      </c>
+      <c r="G2" s="10" t="str">
+        <f t="array" aca="1" ref="G2:L35" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet(Metrics,A5,F2:F28,BaseDate)</f>
+        <v>AUD-Deposit-1D-0.015-2/07/2019</v>
+      </c>
+      <c r="H2" s="10" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I2" s="39">
+        <f ca="1"/>
+        <v>1.4999999999944119E-2</v>
+      </c>
+      <c r="J2" s="31" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K2" s="39">
         <f ca="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I2" s="31">
-        <f ca="1"/>
-        <v>-4.2059306908613913E-4</v>
-      </c>
-      <c r="J2" s="31">
-        <f ca="1"/>
-        <v>8.214708380590725E-3</v>
-      </c>
-      <c r="K2" s="39">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="37">
-        <f ca="1"/>
-        <v>8.2147083805907259E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="37" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1414,39 +1424,39 @@
         <v>1.6E-2</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E34" ca="1" si="0">(G3-D3)</f>
-        <v>5.0700000000005629E-2</v>
+        <f ca="1">(I3-D3)</f>
+        <v>9.540979117872439E-16</v>
       </c>
       <c r="F3" s="7" t="str">
         <f ca="1">IF(ISERROR(C3),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C3,BaseDate,D3,0))</f>
-        <v>AUD-Deposit-1M-0.016-2/02/2018</v>
-      </c>
-      <c r="G3" s="11">
-        <f ca="1"/>
-        <v>6.670000000000563E-2</v>
-      </c>
-      <c r="H3" s="11">
+        <v>AUD-Deposit-1M-0.016-2/07/2019</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-Deposit-1M-0.016-2/07/2019</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I3" s="40">
+        <f ca="1"/>
+        <v>1.6000000000000954E-2</v>
+      </c>
+      <c r="J3" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K3" s="40">
         <f ca="1"/>
         <v>1.6E-2</v>
       </c>
-      <c r="I3" s="32">
-        <f ca="1"/>
-        <v>-3.8674115732188555E-3</v>
-      </c>
-      <c r="J3" s="32">
-        <f ca="1"/>
-        <v>7.6280307164071554E-2</v>
-      </c>
-      <c r="K3" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <f ca="1"/>
-        <v>7.6280307164071549E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1">
+      <c r="L3" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -1460,39 +1470,39 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3300000000002054E-2</v>
+        <f t="shared" ref="E4:E28" ca="1" si="0">(I4-D4)</f>
+        <v>5.6551985316843911E-16</v>
       </c>
       <c r="F4" s="7" t="str">
         <f ca="1">IF(ISERROR(C4),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C4,BaseDate,D4,0))</f>
-        <v>AUD-Deposit-3M-0.017-2/02/2018</v>
-      </c>
-      <c r="G4" s="11">
-        <f ca="1"/>
-        <v>7.0300000000002055E-2</v>
-      </c>
-      <c r="H4" s="11">
+        <v>AUD-Deposit-3M-0.017-2/07/2019</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-Deposit-3M-0.017-2/07/2019</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I4" s="40">
+        <f ca="1"/>
+        <v>1.7000000000000567E-2</v>
+      </c>
+      <c r="J4" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K4" s="40">
         <f ca="1"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I4" s="32">
-        <f ca="1"/>
-        <v>-1.3052497528755128E-2</v>
-      </c>
-      <c r="J4" s="32">
-        <f ca="1"/>
-        <v>0.24488738327869838</v>
-      </c>
-      <c r="K4" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="38">
-        <f ca="1"/>
-        <v>2.4488738327869837E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1">
+      <c r="L4" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
@@ -1505,38 +1515,38 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3400071118209699E-2</v>
+        <v>1.6272306765929834E-10</v>
       </c>
       <c r="F5" s="7" t="str">
         <f ca="1">IF(ISERROR(C5),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C5,BaseDate,D5,0))</f>
-        <v>AUD-IRSwap-3Y-0.021-2/02/2018</v>
-      </c>
-      <c r="G5" s="11">
-        <f ca="1"/>
-        <v>7.4400071118209704E-2</v>
-      </c>
-      <c r="H5" s="11">
+        <v>AUD-IRSwap-3Y-0.021-2/07/2019</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.021-2/07/2019</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I5" s="40">
+        <f ca="1"/>
+        <v>2.1000000162723069E-2</v>
+      </c>
+      <c r="J5" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K5" s="40">
         <f ca="1"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I5" s="32">
-        <f ca="1"/>
-        <v>-1.4355968407455364E-5</v>
-      </c>
-      <c r="J5" s="32">
-        <f ca="1"/>
-        <v>2.6883800165127312</v>
-      </c>
-      <c r="K5" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <f ca="1"/>
-        <v>2.6883800165127312E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="18" t="str">
         <f t="array" ref="A6:B27">_xll.HLV5r3.Financial.Cache.DisplayPricingStructureProperties($A$5)</f>
         <v>PricingStructureType</v>
@@ -1552,43 +1562,43 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9700039374246649E-2</v>
+        <v>-1.1499948250988275E-3</v>
       </c>
       <c r="F6" s="7" t="str">
         <f ca="1">IF(ISERROR(C6),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C6,BaseDate,D6,0))</f>
-        <v>AUD-IRSwap-5Y-0.0248-2/02/2018</v>
-      </c>
-      <c r="G6" s="11">
-        <f ca="1"/>
-        <v>7.4500039374246652E-2</v>
-      </c>
-      <c r="H6" s="11">
+        <v>AUD-IRSwap-5Y-0.0248-2/07/2019</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-5Y-0.0248-2/07/2019</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I6" s="40">
+        <f ca="1"/>
+        <v>2.3650005174901172E-2</v>
+      </c>
+      <c r="J6" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K6" s="40">
         <f ca="1"/>
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="I6" s="32">
-        <f ca="1"/>
-        <v>-2.0516416353808694E-5</v>
-      </c>
-      <c r="J6" s="32">
-        <f ca="1"/>
-        <v>4.1280483098449627</v>
-      </c>
-      <c r="K6" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <f ca="1"/>
-        <v>4.1280483098449623E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="20" t="str">
         <v>BuildDateTime</v>
       </c>
       <c r="B7" s="21">
-        <v>43116</v>
+        <v>43648</v>
       </c>
       <c r="C7" s="7" t="str">
         <v>AUD-IRSwap-7Y</v>
@@ -1598,43 +1608,43 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5060034068177185E-2</v>
+        <v>-1.1139935059214789E-3</v>
       </c>
       <c r="F7" s="7" t="str">
         <f ca="1">IF(ISERROR(C7),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C7,BaseDate,D7,0))</f>
-        <v>AUD-IRSwap-7Y-0.02644-2/02/2018</v>
-      </c>
-      <c r="G7" s="11">
-        <f ca="1"/>
-        <v>7.150003406817719E-2</v>
-      </c>
-      <c r="H7" s="11">
+        <v>AUD-IRSwap-7Y-0.02644-2/07/2019</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-7Y-0.02644-2/07/2019</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I7" s="40">
+        <f ca="1"/>
+        <v>2.5326006494078523E-2</v>
+      </c>
+      <c r="J7" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K7" s="40">
         <f ca="1"/>
         <v>2.6440000000000002E-2</v>
       </c>
-      <c r="I7" s="32">
-        <f ca="1"/>
-        <v>-2.4376845113055876E-5</v>
-      </c>
-      <c r="J7" s="32">
-        <f ca="1"/>
-        <v>5.409859450211016</v>
-      </c>
-      <c r="K7" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <f ca="1"/>
-        <v>5.4098594502110153E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="20" t="str">
         <v>BaseDate</v>
       </c>
       <c r="B8" s="21">
-        <v>43116</v>
+        <v>43648</v>
       </c>
       <c r="C8" s="7" t="str">
         <v>AUD-IRSwap-10Y</v>
@@ -1644,38 +1654,38 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0600026726190439E-2</v>
+        <v>-1.0599852092200782E-3</v>
       </c>
       <c r="F8" s="7" t="str">
         <f ca="1">IF(ISERROR(C8),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C8,BaseDate,D8,0))</f>
-        <v>AUD-IRSwap-10Y-0.0289-2/02/2018</v>
-      </c>
-      <c r="G8" s="11">
-        <f ca="1"/>
-        <v>6.9500026726190434E-2</v>
-      </c>
-      <c r="H8" s="11">
+        <v>AUD-IRSwap-10Y-0.0289-2/07/2019</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-10Y-0.0289-2/07/2019</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I8" s="40">
+        <f ca="1"/>
+        <v>2.784001479077992E-2</v>
+      </c>
+      <c r="J8" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K8" s="40">
         <f ca="1"/>
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="I8" s="32">
-        <f ca="1"/>
-        <v>-2.8674110067606037E-5</v>
-      </c>
-      <c r="J8" s="32">
-        <f ca="1"/>
-        <v>7.0625840374407494</v>
-      </c>
-      <c r="K8" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <f ca="1"/>
-        <v>7.0625840374407493E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="20" t="str">
         <v>Market</v>
       </c>
@@ -1690,38 +1700,38 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.680003375992958E-2</v>
+        <v>-8.5997082016614837E-4</v>
       </c>
       <c r="F9" s="7" t="str">
         <f ca="1">IF(ISERROR(C9),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C9,BaseDate,D9,0))</f>
-        <v>AUD-IRSwap-15Y-0.0312-2/02/2018</v>
-      </c>
-      <c r="G9" s="11">
-        <f ca="1"/>
-        <v>6.8000033759929579E-2</v>
-      </c>
-      <c r="H9" s="11">
+        <v>AUD-IRSwap-15Y-0.0312-2/07/2019</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-15Y-0.0312-2/07/2019</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I9" s="40">
+        <f ca="1"/>
+        <v>3.034002917983385E-2</v>
+      </c>
+      <c r="J9" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K9" s="40">
         <f ca="1"/>
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="I9" s="32">
-        <f ca="1"/>
-        <v>-3.3908071831130401E-5</v>
-      </c>
-      <c r="J9" s="32">
-        <f ca="1"/>
-        <v>9.2141415011558649</v>
-      </c>
-      <c r="K9" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="38">
-        <f ca="1"/>
-        <v>9.2141415011558658E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="20" t="str">
         <v>IndexName</v>
       </c>
@@ -1736,38 +1746,38 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4500036688650856E-2</v>
+        <v>-7.5997057718071859E-4</v>
       </c>
       <c r="F10" s="7" t="str">
         <f ca="1">IF(ISERROR(C10),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C10,BaseDate,D10,0))</f>
-        <v>AUD-IRSwap-20Y-0.0324-2/02/2018</v>
-      </c>
-      <c r="G10" s="11">
-        <f ca="1"/>
-        <v>6.6900036688650855E-2</v>
-      </c>
-      <c r="H10" s="11">
+        <v>AUD-IRSwap-20Y-0.0324-2/07/2019</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-20Y-0.0324-2/07/2019</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I10" s="40">
+        <f ca="1"/>
+        <v>3.164002942281928E-2</v>
+      </c>
+      <c r="J10" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K10" s="40">
         <f ca="1"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="I10" s="32">
-        <f ca="1"/>
-        <v>-3.7260254465394041E-5</v>
-      </c>
-      <c r="J10" s="32">
-        <f ca="1"/>
-        <v>10.800062272876131</v>
-      </c>
-      <c r="K10" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
-        <f ca="1"/>
-        <v>1.0800062272876131E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="20" t="str">
         <v>IndexTenor</v>
       </c>
@@ -1782,38 +1792,38 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1954094328801877E-2</v>
+        <v>-7.5996346633682571E-4</v>
       </c>
       <c r="F11" s="7" t="str">
         <f ca="1">IF(ISERROR(C11),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C11,BaseDate,D11,0))</f>
-        <v>AUD-IRSwap-25Y-0.034-2/02/2018</v>
-      </c>
-      <c r="G11" s="11">
-        <f ca="1"/>
-        <v>6.5954094328801879E-2</v>
-      </c>
-      <c r="H11" s="11">
+        <v>AUD-IRSwap-25Y-0.034-2/07/2019</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-25Y-0.034-2/07/2019</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I11" s="40">
+        <f ca="1"/>
+        <v>3.3240036533663177E-2</v>
+      </c>
+      <c r="J11" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K11" s="40">
         <f ca="1"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I11" s="32">
-        <f ca="1"/>
-        <v>-3.8308052412137855E-5</v>
-      </c>
-      <c r="J11" s="32">
-        <f ca="1"/>
-        <v>11.98846445715372</v>
-      </c>
-      <c r="K11" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
-        <f ca="1"/>
-        <v>1.1988464457153719E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="20" t="str">
         <v>CurveName</v>
       </c>
@@ -1828,38 +1838,38 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.013103229439261E-2</v>
+        <v>-7.5996215643232834E-4</v>
       </c>
       <c r="F12" s="7" t="str">
         <f ca="1">IF(ISERROR(C12),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C12,BaseDate,D12,0))</f>
-        <v>AUD-IRSwap-30Y-0.035-2/02/2018</v>
-      </c>
-      <c r="G12" s="11">
-        <f ca="1"/>
-        <v>6.5131032294392613E-2</v>
-      </c>
-      <c r="H12" s="11">
+        <v>AUD-IRSwap-30Y-0.035-2/07/2019</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-30Y-0.035-2/07/2019</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I12" s="40">
+        <f ca="1"/>
+        <v>3.4240037843567675E-2</v>
+      </c>
+      <c r="J12" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K12" s="40">
         <f ca="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I12" s="32">
-        <f ca="1"/>
-        <v>-3.8843787456707853E-5</v>
-      </c>
-      <c r="J12" s="32">
-        <f ca="1"/>
-        <v>12.891621859214128</v>
-      </c>
-      <c r="K12" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <f ca="1"/>
-        <v>1.289162185921413E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="20" t="str">
         <v>Algorithm</v>
       </c>
@@ -1874,38 +1884,38 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7599158742690273E-2</v>
+        <v>-1.8760597181310956E-7</v>
       </c>
       <c r="F13" s="7" t="str">
         <f ca="1">IF(ISERROR(C13),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C13,BaseDate,D13,0))</f>
-        <v>AUD-IRFuture-IR-1-0.019-2/02/2018</v>
-      </c>
-      <c r="G13" s="11">
-        <f ca="1"/>
-        <v>6.6599158742690276E-2</v>
-      </c>
-      <c r="H13" s="11">
+        <v>AUD-IRFuture-IR-1-0.019-2/07/2019</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-1-0.019-2/07/2019</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I13" s="40">
+        <f ca="1"/>
+        <v>1.8999812394028186E-2</v>
+      </c>
+      <c r="J13" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K13" s="40">
         <f ca="1"/>
         <v>1.9E-2</v>
       </c>
-      <c r="I13" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K13" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <f ca="1"/>
-        <v>24.428110039416254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="20" t="str">
         <v>Currency</v>
       </c>
@@ -1920,38 +1930,38 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6089928596334317E-2</v>
+        <v>-8.5971721450195382E-7</v>
       </c>
       <c r="F14" s="7" t="str">
         <f ca="1">IF(ISERROR(C14),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C14,BaseDate,D14,0))</f>
-        <v>AUD-IRFuture-IR-2-0.0195-2/02/2018</v>
-      </c>
-      <c r="G14" s="11">
-        <f ca="1"/>
-        <v>6.5589928596334321E-2</v>
-      </c>
-      <c r="H14" s="11">
+        <v>AUD-IRFuture-IR-2-0.0195-2/07/2019</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-2-0.0195-2/07/2019</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I14" s="40">
+        <f ca="1"/>
+        <v>1.9499140282785498E-2</v>
+      </c>
+      <c r="J14" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K14" s="40">
         <f ca="1"/>
         <v>1.95E-2</v>
       </c>
-      <c r="I14" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K14" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="38">
-        <f ca="1"/>
-        <v>24.422115860669539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="20" t="str">
         <v>SourceSystem</v>
       </c>
@@ -1966,38 +1976,38 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7568724356789313E-2</v>
+        <v>-2.1777486241235378E-6</v>
       </c>
       <c r="F15" s="7" t="str">
         <f ca="1">IF(ISERROR(C15),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C15,BaseDate,D15,0))</f>
-        <v>AUD-IRFuture-IR-3-0.02-2/02/2018</v>
-      </c>
-      <c r="G15" s="11">
-        <f ca="1"/>
-        <v>6.7568724356789317E-2</v>
-      </c>
-      <c r="H15" s="11">
+        <v>AUD-IRFuture-IR-3-0.02-2/07/2019</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-3-0.02-2/07/2019</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I15" s="40">
+        <f ca="1"/>
+        <v>1.9997822251375877E-2</v>
+      </c>
+      <c r="J15" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K15" s="40">
         <f ca="1"/>
         <v>0.02</v>
       </c>
-      <c r="I15" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K15" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="38">
-        <f ca="1"/>
-        <v>24.416123887932887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="20" t="str">
         <v>Function</v>
       </c>
@@ -2012,35 +2022,35 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.833550030603169E-2</v>
+        <v>-4.1965609724123332E-6</v>
       </c>
       <c r="F16" s="7" t="str">
         <f ca="1">IF(ISERROR(C16),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C16,BaseDate,D16,0))</f>
-        <v>AUD-IRFuture-IR-4-0.0205-2/02/2018</v>
-      </c>
-      <c r="G16" s="11">
-        <f ca="1"/>
-        <v>6.8835500306031694E-2</v>
-      </c>
-      <c r="H16" s="11">
+        <v>AUD-IRFuture-IR-4-0.0205-2/07/2019</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-4-0.0205-2/07/2019</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I16" s="40">
+        <f ca="1"/>
+        <v>2.0495803439027589E-2</v>
+      </c>
+      <c r="J16" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K16" s="40">
         <f ca="1"/>
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="I16" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K16" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="38">
-        <f ca="1"/>
-        <v>24.410134120123946</v>
+      <c r="L16" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2058,35 +2068,35 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4602610729729805E-2</v>
+        <v>-6.9973394939172595E-6</v>
       </c>
       <c r="F17" s="7" t="str">
         <f ca="1">IF(ISERROR(C17),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C17,BaseDate,D17,0))</f>
-        <v>AUD-IRFuture-IR-5-0.021-2/02/2018</v>
-      </c>
-      <c r="G17" s="11">
-        <f ca="1"/>
-        <v>6.560261072972981E-2</v>
-      </c>
-      <c r="H17" s="11">
+        <v>AUD-IRFuture-IR-5-0.021-2/07/2019</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-5-0.021-2/07/2019</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I17" s="40">
+        <f ca="1"/>
+        <v>2.0993002660506084E-2</v>
+      </c>
+      <c r="J17" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K17" s="40">
         <f ca="1"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I17" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K17" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="38">
-        <f ca="1"/>
-        <v>24.404146556161013</v>
+      <c r="L17" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2104,35 +2114,35 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2760488294006326E-2</v>
+        <v>-1.0663176096142174E-5</v>
       </c>
       <c r="F18" s="7" t="str">
         <f ca="1">IF(ISERROR(C18),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C18,BaseDate,D18,0))</f>
-        <v>AUD-IRFuture-IR-6-0.0215-2/02/2018</v>
-      </c>
-      <c r="G18" s="11">
-        <f ca="1"/>
-        <v>6.4260488294006324E-2</v>
-      </c>
-      <c r="H18" s="11">
+        <v>AUD-IRFuture-IR-6-0.0215-2/07/2019</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-6-0.0215-2/07/2019</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I18" s="40">
+        <f ca="1"/>
+        <v>2.1489336823903856E-2</v>
+      </c>
+      <c r="J18" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K18" s="40">
         <f ca="1"/>
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="I18" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K18" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="38">
-        <f ca="1"/>
-        <v>24.39816119496307</v>
+      <c r="L18" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2150,35 +2160,35 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9915109268979149E-2</v>
+        <v>-1.5279071991895071E-5</v>
       </c>
       <c r="F19" s="7" t="str">
         <f ca="1">IF(ISERROR(C19),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C19,BaseDate,D19,0))</f>
-        <v>AUD-IRFuture-IR-7-0.022-2/02/2018</v>
-      </c>
-      <c r="G19" s="11">
-        <f ca="1"/>
-        <v>6.1915109268979147E-2</v>
-      </c>
-      <c r="H19" s="11">
+        <v>AUD-IRFuture-IR-7-0.022-2/07/2019</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-7-0.022-2/07/2019</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I19" s="40">
+        <f ca="1"/>
+        <v>2.1984720928008104E-2</v>
+      </c>
+      <c r="J19" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K19" s="40">
         <f ca="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I19" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K19" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="38">
-        <f ca="1"/>
-        <v>24.392178035449735</v>
+      <c r="L19" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2196,35 +2206,35 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1557922504815674E-2</v>
+        <v>-2.0911334962143285E-5</v>
       </c>
       <c r="F20" s="7" t="str">
         <f ca="1">IF(ISERROR(C20),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C20,BaseDate,D20,0))</f>
-        <v>AUD-IRFuture-IR-8-0.0225-2/02/2018</v>
-      </c>
-      <c r="G20" s="11">
-        <f ca="1"/>
-        <v>7.4057922504815674E-2</v>
-      </c>
-      <c r="H20" s="11">
+        <v>AUD-IRFuture-IR-8-0.0225-2/07/2019</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-IRFuture-IR-8-0.0225-2/07/2019</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I20" s="40">
+        <f ca="1"/>
+        <v>2.2479088665037856E-2</v>
+      </c>
+      <c r="J20" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K20" s="40">
         <f ca="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I20" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <f ca="1"/>
-        <v>0.24657534246575344</v>
-      </c>
-      <c r="K20" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="38">
-        <f ca="1"/>
-        <v>24.386197076541308</v>
+      <c r="L20" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2242,35 +2252,35 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3500071118209706E-2</v>
+        <v>2.0100000162723067E-2</v>
       </c>
       <c r="F21" s="7" t="str">
         <f ca="1">IF(ISERROR(C21),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C21,BaseDate,D21,0))</f>
-        <v>AUD-BasisSwap-3Y-6M-0.0009-2/02/2018</v>
-      </c>
-      <c r="G21" s="11">
-        <f ca="1"/>
-        <v>7.4400071118209704E-2</v>
-      </c>
-      <c r="H21" s="11">
+        <v>AUD-BasisSwap-3Y-6M-0.0009-2/07/2019</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-3Y-6M-0.0009-2/07/2019</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I21" s="40">
+        <f ca="1"/>
+        <v>2.1000000162723069E-2</v>
+      </c>
+      <c r="J21" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K21" s="40">
         <f ca="1"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I21" s="32">
-        <f ca="1"/>
-        <v>-0.20001542246711954</v>
-      </c>
-      <c r="J21" s="32">
-        <f ca="1"/>
-        <v>2.6883800165127312</v>
-      </c>
-      <c r="K21" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="38">
-        <f ca="1"/>
-        <v>2.6883800165127312E-4</v>
+      <c r="L21" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2288,35 +2298,35 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2663898969783466E-2</v>
+        <v>2.2429441617285786E-2</v>
       </c>
       <c r="F22" s="7" t="str">
         <f ca="1">IF(ISERROR(C22),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C22,BaseDate,D22,0))</f>
-        <v>AUD-BasisSwap-5Y-6M-0.00115-2/02/2018</v>
-      </c>
-      <c r="G22" s="11">
-        <f ca="1"/>
-        <v>7.3813898969783465E-2</v>
-      </c>
-      <c r="H22" s="11">
+        <v>AUD-BasisSwap-5Y-6M-0.00115-2/07/2019</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-5Y-6M-0.00115-2/07/2019</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I22" s="40">
+        <f ca="1"/>
+        <v>2.3579441617285788E-2</v>
+      </c>
+      <c r="J22" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K22" s="40">
         <f ca="1"/>
         <v>1.15E-3</v>
       </c>
-      <c r="I22" s="32">
-        <f ca="1"/>
-        <v>-0.3075392824838537</v>
-      </c>
-      <c r="J22" s="32">
-        <f ca="1"/>
-        <v>4.1664207678304166</v>
-      </c>
-      <c r="K22" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="38">
-        <f ca="1"/>
-        <v>4.1664207678304162E-4</v>
+      <c r="L22" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2334,35 +2344,35 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9755536422097975E-2</v>
+        <v>2.4131324703491139E-2</v>
       </c>
       <c r="F23" s="7" t="str">
         <f ca="1">IF(ISERROR(C23),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C23,BaseDate,D23,0))</f>
-        <v>AUD-BasisSwap-7Y-6M-0.001114-2/02/2018</v>
-      </c>
-      <c r="G23" s="11">
-        <f ca="1"/>
-        <v>7.0869536422097978E-2</v>
-      </c>
-      <c r="H23" s="11">
+        <v>AUD-BasisSwap-7Y-6M-0.001114-2/07/2019</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-7Y-6M-0.001114-2/07/2019</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I23" s="40">
+        <f ca="1"/>
+        <v>2.524532470349114E-2</v>
+      </c>
+      <c r="J23" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K23" s="40">
         <f ca="1"/>
         <v>1.114E-3</v>
       </c>
-      <c r="I23" s="32">
-        <f ca="1"/>
-        <v>-0.38680452697418738</v>
-      </c>
-      <c r="J23" s="32">
-        <f ca="1"/>
-        <v>5.4579887850589577</v>
-      </c>
-      <c r="K23" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="38">
-        <f ca="1"/>
-        <v>5.4579887850589564E-4</v>
+      <c r="L23" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2380,35 +2390,35 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7844774663752022E-2</v>
+        <v>2.6682759816440475E-2</v>
       </c>
       <c r="F24" s="7" t="str">
         <f ca="1">IF(ISERROR(C24),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C24,BaseDate,D24,0))</f>
-        <v>AUD-BasisSwap-10Y-6M-0.00106-2/02/2018</v>
-      </c>
-      <c r="G24" s="11">
-        <f ca="1"/>
-        <v>6.8904774663752028E-2</v>
-      </c>
-      <c r="H24" s="11">
+        <v>AUD-BasisSwap-10Y-6M-0.00106-2/07/2019</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-10Y-6M-0.00106-2/07/2019</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I24" s="40">
+        <f ca="1"/>
+        <v>2.7742759816440473E-2</v>
+      </c>
+      <c r="J24" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K24" s="40">
         <f ca="1"/>
         <v>1.06E-3</v>
       </c>
-      <c r="I24" s="32">
-        <f ca="1"/>
-        <v>-0.49084902425691868</v>
-      </c>
-      <c r="J24" s="32">
-        <f ca="1"/>
-        <v>7.1235960316740412</v>
-      </c>
-      <c r="K24" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="38">
-        <f ca="1"/>
-        <v>7.1235960316740413E-4</v>
+      <c r="L24" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2426,35 +2436,35 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6570460027794709E-2</v>
+        <v>2.9364848060763487E-2</v>
       </c>
       <c r="F25" s="7" t="str">
         <f ca="1">IF(ISERROR(C25),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C25,BaseDate,D25,0))</f>
-        <v>AUD-BasisSwap-15Y-6M-0.00086-2/02/2018</v>
-      </c>
-      <c r="G25" s="11">
-        <f ca="1"/>
-        <v>6.7430460027794709E-2</v>
-      </c>
-      <c r="H25" s="11">
+        <v>AUD-BasisSwap-15Y-6M-0.00086-2/07/2019</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-15Y-6M-0.00086-2/07/2019</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I25" s="40">
+        <f ca="1"/>
+        <v>3.0224848060763487E-2</v>
+      </c>
+      <c r="J25" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K25" s="40">
         <f ca="1"/>
         <v>8.5999999999999998E-4</v>
       </c>
-      <c r="I25" s="32">
-        <f ca="1"/>
-        <v>-0.62656113403779212</v>
-      </c>
-      <c r="J25" s="32">
-        <f ca="1"/>
-        <v>9.291971801602708</v>
-      </c>
-      <c r="K25" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="38">
-        <f ca="1"/>
-        <v>9.2919718016027091E-4</v>
+      <c r="L25" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2472,35 +2482,35 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5588914992094016E-2</v>
+        <v>3.0754960844995186E-2</v>
       </c>
       <c r="F26" s="7" t="str">
         <f ca="1">IF(ISERROR(C26),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C26,BaseDate,D26,0))</f>
-        <v>AUD-BasisSwap-20Y-6M-0.00076-2/02/2018</v>
-      </c>
-      <c r="G26" s="11">
-        <f ca="1"/>
-        <v>6.6348914992094013E-2</v>
-      </c>
-      <c r="H26" s="11">
+        <v>AUD-BasisSwap-20Y-6M-0.00076-2/07/2019</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-20Y-6M-0.00076-2/07/2019</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I26" s="40">
+        <f ca="1"/>
+        <v>3.1514960844995187E-2</v>
+      </c>
+      <c r="J26" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K26" s="40">
         <f ca="1"/>
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="I26" s="32">
-        <f ca="1"/>
-        <v>-0.72252373467244868</v>
-      </c>
-      <c r="J26" s="32">
-        <f ca="1"/>
-        <v>10.889772084158745</v>
-      </c>
-      <c r="K26" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="38">
-        <f ca="1"/>
-        <v>1.0889772084158743E-3</v>
+      <c r="L26" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="13.5" thickBot="1">
@@ -2518,35 +2528,35 @@
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4658441010547629E-2</v>
+        <v>3.234215224440419E-2</v>
       </c>
       <c r="F27" s="7" t="str">
         <f ca="1">IF(ISERROR(C27),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C27,BaseDate,D27,0))</f>
-        <v>AUD-BasisSwap-25Y-6M-0.00076-2/02/2018</v>
-      </c>
-      <c r="G27" s="11">
-        <f ca="1"/>
-        <v>6.5418441010547626E-2</v>
-      </c>
-      <c r="H27" s="11">
+        <v>AUD-BasisSwap-25Y-6M-0.00076-2/07/2019</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-25Y-6M-0.00076-2/07/2019</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I27" s="40">
+        <f ca="1"/>
+        <v>3.3102152244404187E-2</v>
+      </c>
+      <c r="J27" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K27" s="40">
         <f ca="1"/>
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="I27" s="32">
-        <f ca="1"/>
-        <v>-0.7906873970809295</v>
-      </c>
-      <c r="J27" s="32">
-        <f ca="1"/>
-        <v>12.086627309524538</v>
-      </c>
-      <c r="K27" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="38">
-        <f ca="1"/>
-        <v>1.2086627309524541E-3</v>
+      <c r="L27" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1">
@@ -2558,35 +2568,35 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3848638355272158E-2</v>
+        <v>3.3333848567161997E-2</v>
       </c>
       <c r="F28" s="7" t="str">
         <f ca="1">IF(ISERROR(C28),"",_xll.HLV5r3.Financial.Cache.CreateAsset(C28,BaseDate,D28,0))</f>
-        <v>AUD-BasisSwap-30Y-6M-0.00076-2/02/2018</v>
-      </c>
-      <c r="G28" s="11">
-        <f ca="1"/>
-        <v>6.4608638355272155E-2</v>
-      </c>
-      <c r="H28" s="11">
+        <v>AUD-BasisSwap-30Y-6M-0.00076-2/07/2019</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f ca="1"/>
+        <v>AUD-BasisSwap-30Y-6M-0.00076-2/07/2019</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I28" s="40">
+        <f ca="1"/>
+        <v>3.4093848567161994E-2</v>
+      </c>
+      <c r="J28" s="32" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K28" s="40">
         <f ca="1"/>
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="I28" s="32">
-        <f ca="1"/>
-        <v>-0.83964365195442381</v>
-      </c>
-      <c r="J28" s="32">
-        <f ca="1"/>
-        <v>12.99585722612674</v>
-      </c>
-      <c r="K28" s="40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="38">
-        <f ca="1"/>
-        <v>1.2995857226126741E-3</v>
+      <c r="L28" s="38" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1">
@@ -2603,7 +2613,7 @@
         <v>#N/A</v>
       </c>
       <c r="E29" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="E3:E34" ca="1" si="1">(G29-D29)</f>
         <v>#N/A</v>
       </c>
       <c r="F29" s="7" t="str">
@@ -2649,7 +2659,7 @@
         <v>#N/A</v>
       </c>
       <c r="E30" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F30" s="7" t="str">
@@ -2695,7 +2705,7 @@
         <v>#N/A</v>
       </c>
       <c r="E31" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F31" s="7" t="str">
@@ -2741,7 +2751,7 @@
         <v>#N/A</v>
       </c>
       <c r="E32" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F32" s="7" t="str">
@@ -2787,7 +2797,7 @@
         <v>#N/A</v>
       </c>
       <c r="E33" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F33" s="7" t="str">
@@ -2833,7 +2843,7 @@
         <v>#N/A</v>
       </c>
       <c r="E34" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F34" s="7" t="str">
